--- a/keywords_to_search.xlsx
+++ b/keywords_to_search.xlsx
@@ -436,11 +436,8 @@
       <c r="A4" t="str">
         <v>여행가방</v>
       </c>
-      <c r="B4" t="str">
-        <v>o</v>
-      </c>
-      <c r="C4" t="str">
-        <v>5</v>
+      <c r="D4" t="str">
+        <v>v</v>
       </c>
     </row>
     <row r="5">
@@ -451,6 +448,12 @@
     <row r="6">
       <c r="A6" t="str">
         <v>토트백</v>
+      </c>
+      <c r="B6" t="str">
+        <v>o</v>
+      </c>
+      <c r="C6" t="str">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
